--- a/src/test/java/testData/TestSuite1Data.xlsx
+++ b/src/test/java/testData/TestSuite1Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arorag\eclipse-workspace\AN4_FILI_UPDATED\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6AF11A-B053-47C3-85F2-FA457CEEB681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930409C6-8A23-4C27-BBF2-295E69CCE02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="460">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -1411,6 +1411,9 @@
   </si>
   <si>
     <t>456 Noida</t>
+  </si>
+  <si>
+    <t>TSQ_Whatisthetotalnumber</t>
   </si>
 </sst>
 </file>
@@ -4292,10 +4295,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BG2"/>
+  <dimension ref="A1:BH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BC25" sqref="BC25"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BH2" sqref="BH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4349,7 +4352,7 @@
     <col min="59" max="59" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>48</v>
       </c>
@@ -4527,8 +4530,11 @@
       <c r="BG1" s="20" t="s">
         <v>435</v>
       </c>
+      <c r="BH1" s="20" t="s">
+        <v>459</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>382</v>
       </c>
@@ -4705,6 +4711,9 @@
       </c>
       <c r="BG2">
         <v>56566776</v>
+      </c>
+      <c r="BH2" s="18" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
